--- a/target/classes/com/testdata/testdata.xlsx
+++ b/target/classes/com/testdata/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkum1389\eclipse-workspace\Apollo_Dcotor_consult_prabhakar\src\main\java\com\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670AC28D-C9D7-42B4-91A2-3E136AEF79FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AEADEC-C9A4-475A-827D-B3B2A658C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>contact</t>
+  </si>
+  <si>
+    <t>otp</t>
   </si>
 </sst>
 </file>
@@ -345,23 +348,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>8700042264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>111111</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/testdata/testdata.xlsx
+++ b/target/classes/com/testdata/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkum1389\eclipse-workspace\Apollo_Dcotor_consult_prabhakar\src\main\java\com\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AEADEC-C9A4-475A-827D-B3B2A658C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5705B-F320-4EE0-8278-01CFE67BEA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>contact</t>
-  </si>
-  <si>
-    <t>otp</t>
   </si>
 </sst>
 </file>
@@ -348,33 +345,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>8700042264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>111111</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/testdata/testdata.xlsx
+++ b/target/classes/com/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkum1389\eclipse-workspace\Apollo_Dcotor_consult_prabhakar\src\main\java\com\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5705B-F320-4EE0-8278-01CFE67BEA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20185FF-2E6B-4F6E-8330-C835B2FD056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>contact</t>
+  </si>
+  <si>
+    <t>otp</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -357,14 +360,20 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>8700042264</v>
+      </c>
+      <c r="B2">
+        <v>111111</v>
       </c>
     </row>
   </sheetData>
